--- a/kovrov/text/товары суши лайк.xlsx
+++ b/kovrov/text/товары суши лайк.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiril\Desktop\сайты\sushi-like\kovrov\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F9FEAA-8251-45AD-AFD7-E2234637D8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC6421C-D430-435D-B300-0E5ADB882F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" xr2:uid="{4A471A13-7724-49C0-A1E7-A052935F7342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4A471A13-7724-49C0-A1E7-A052935F7342}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1721,7 +1721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,7 +1738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1756,8 +1756,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2075,29 +2081,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AA1EA5-DDEF-42B9-9810-ABECD69EB88E}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="44.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="65.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>408</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2120,13 +2125,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="4">
         <v>480</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>480</v>
       </c>
       <c r="D2" s="3">
@@ -2149,13 +2154,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="4">
         <v>450</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>450</v>
       </c>
       <c r="D3" s="3">
@@ -2178,13 +2183,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="4">
         <v>1650</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>1650</v>
       </c>
       <c r="D4" s="3">
@@ -2207,13 +2212,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B5" s="4">
         <v>490</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>490</v>
       </c>
       <c r="D5" s="3">
@@ -2236,13 +2241,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="4">
         <v>470</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>470</v>
       </c>
       <c r="D6" s="3">
@@ -2265,13 +2270,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="4">
         <v>810</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>810</v>
       </c>
       <c r="D7" s="3">
@@ -2294,13 +2299,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B8" s="4">
         <v>630</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>610</v>
       </c>
       <c r="D8" s="3">
@@ -2323,13 +2328,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B9" s="4">
         <v>290</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>220</v>
       </c>
       <c r="D9" s="3">
@@ -2352,13 +2357,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B10" s="4">
         <v>550</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>350</v>
       </c>
       <c r="D10" s="3">
@@ -2381,13 +2386,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="4">
         <v>550</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <v>550</v>
       </c>
       <c r="D11" s="3">
@@ -2410,13 +2415,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>217</v>
       </c>
       <c r="B12" s="4">
         <v>310</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>450</v>
       </c>
       <c r="D12" s="3">
@@ -2439,13 +2444,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B13" s="4">
         <v>470</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="8">
         <v>470</v>
       </c>
       <c r="D13" s="3">
@@ -2468,13 +2473,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B14" s="4">
         <v>390</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>310</v>
       </c>
       <c r="D14" s="3">
@@ -2497,13 +2502,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B15" s="4">
         <v>290</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="8">
         <v>290</v>
       </c>
       <c r="D15" s="3">
@@ -2526,13 +2531,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>223</v>
       </c>
       <c r="B16" s="4">
         <v>430</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>390</v>
       </c>
       <c r="D16" s="3">
@@ -2555,13 +2560,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B17" s="4">
         <v>430</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="8">
         <v>430</v>
       </c>
       <c r="D17" s="3">
@@ -2584,13 +2589,13 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B18" s="4">
         <v>170</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="8">
         <v>170</v>
       </c>
       <c r="D18" s="3">
@@ -2613,13 +2618,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B19" s="4">
         <v>170</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="8">
         <v>170</v>
       </c>
       <c r="D19" s="3">
@@ -2642,13 +2647,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>249</v>
       </c>
       <c r="B20" s="4">
         <v>170</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="8">
         <v>170</v>
       </c>
       <c r="D20" s="3">
@@ -2671,13 +2676,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B21" s="4">
         <v>170</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="8">
         <v>170</v>
       </c>
       <c r="D21" s="3">
@@ -2700,13 +2705,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B22" s="4">
         <v>170</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="8">
         <v>170</v>
       </c>
       <c r="D22" s="3">
@@ -2729,13 +2734,13 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B23" s="4">
         <v>210</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="8">
         <v>210</v>
       </c>
       <c r="D23" s="3">
@@ -2758,13 +2763,13 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B24" s="4">
         <v>170</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="8">
         <v>170</v>
       </c>
       <c r="D24" s="3">
@@ -2787,13 +2792,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>245</v>
       </c>
       <c r="B25" s="4">
         <v>210</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="8">
         <v>210</v>
       </c>
       <c r="D25" s="3">
@@ -2816,13 +2821,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
         <v>247</v>
       </c>
       <c r="B26" s="4">
         <v>170</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="8">
         <v>170</v>
       </c>
       <c r="D26" s="3">
@@ -2845,13 +2850,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B27" s="4">
         <v>470</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="8">
         <v>470</v>
       </c>
       <c r="D27" s="3">
@@ -2874,13 +2879,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B28" s="4">
         <v>900</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>1200</v>
       </c>
       <c r="D28" s="3">
@@ -2903,13 +2908,13 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B29" s="4">
         <v>900</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>1200</v>
       </c>
       <c r="D29" s="3">
@@ -2932,13 +2937,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B30" s="4">
         <v>900</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>1200</v>
       </c>
       <c r="D30" s="3">
@@ -2961,13 +2966,13 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B31" s="4">
         <v>900</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>1100</v>
       </c>
       <c r="D31" s="3">
@@ -2990,13 +2995,13 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B32" s="4">
         <v>900</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>1100</v>
       </c>
       <c r="D32" s="3">
@@ -3019,13 +3024,13 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="4">
         <v>430</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="8">
         <v>430</v>
       </c>
       <c r="D33" s="3">
@@ -3048,13 +3053,13 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="4">
         <v>2030</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="8">
         <v>2030</v>
       </c>
       <c r="D34" s="3">
@@ -3077,13 +3082,13 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B35" s="4">
         <v>1990</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="8">
         <v>1990</v>
       </c>
       <c r="D35" s="3">
@@ -3106,13 +3111,13 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="4">
         <v>1040</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="8">
         <v>1040</v>
       </c>
       <c r="D36" s="3">
@@ -3135,13 +3140,13 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B37" s="4">
         <v>430</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <v>390</v>
       </c>
       <c r="D37" s="3">
@@ -3164,13 +3169,13 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B38" s="4">
         <v>390</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="8">
         <v>390</v>
       </c>
       <c r="D38" s="3">
@@ -3193,13 +3198,13 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B39" s="4">
         <v>460</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="8">
         <v>440</v>
       </c>
       <c r="D39" s="3">
@@ -3222,13 +3227,13 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B40" s="4">
         <v>440</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="8">
         <v>440</v>
       </c>
       <c r="D40" s="3">
@@ -3251,13 +3256,13 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B41" s="4">
         <v>510</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="8">
         <v>510</v>
       </c>
       <c r="D41" s="3">
@@ -3280,13 +3285,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B42" s="4">
         <v>390</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="8">
         <v>390</v>
       </c>
       <c r="D42" s="3">
@@ -3309,13 +3314,13 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B43" s="4">
         <v>390</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="8">
         <v>390</v>
       </c>
       <c r="D43" s="3">
@@ -3338,13 +3343,13 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B44" s="4">
         <v>410</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="8">
         <v>410</v>
       </c>
       <c r="D44" s="3">
@@ -3367,13 +3372,13 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B45" s="4">
         <v>430</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>470</v>
       </c>
       <c r="D45" s="3">
@@ -3396,13 +3401,13 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B46" s="4">
         <v>390</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="8">
         <v>390</v>
       </c>
       <c r="D46" s="3">
@@ -3425,13 +3430,13 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B47" s="4">
         <v>190</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="8">
         <v>190</v>
       </c>
       <c r="D47" s="3">
@@ -3448,13 +3453,13 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B48" s="4">
         <v>210</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="8">
         <v>210</v>
       </c>
       <c r="D48" s="3">
@@ -3471,13 +3476,13 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="4">
         <v>1599</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="8">
         <v>1599</v>
       </c>
       <c r="D49" s="3">
@@ -3500,13 +3505,13 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B50" s="4">
         <v>460</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="8">
         <v>460</v>
       </c>
       <c r="D50" s="3">
@@ -3529,13 +3534,13 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="4">
         <v>1590</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="8">
         <v>1590</v>
       </c>
       <c r="D51" s="3">
@@ -3558,13 +3563,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B52" s="4">
         <v>230</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="8">
         <v>230</v>
       </c>
       <c r="D52" s="3">
@@ -3587,13 +3592,13 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B53" s="4">
         <v>340</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="8">
         <v>340</v>
       </c>
       <c r="D53" s="3">
@@ -3616,13 +3621,13 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B54" s="4">
         <v>290</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="8">
         <v>290</v>
       </c>
       <c r="D54" s="3">
@@ -3645,13 +3650,13 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B55" s="4">
         <v>310</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="8">
         <v>310</v>
       </c>
       <c r="D55" s="3">
@@ -3674,13 +3679,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="4">
         <v>230</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="8">
         <v>230</v>
       </c>
       <c r="D56" s="3">
@@ -3703,13 +3708,13 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="4">
         <v>330</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="8">
         <v>330</v>
       </c>
       <c r="D57" s="3">
@@ -3732,13 +3737,13 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B58" s="4">
         <v>350</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="8">
         <v>310</v>
       </c>
       <c r="D58" s="3">
@@ -3761,13 +3766,13 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="4">
         <v>230</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="8">
         <v>230</v>
       </c>
       <c r="D59" s="3">
@@ -3790,13 +3795,13 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B60" s="4">
         <v>310</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="8">
         <v>310</v>
       </c>
       <c r="D60" s="3">
@@ -3819,13 +3824,13 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="9" t="s">
         <v>280</v>
       </c>
       <c r="B61" s="4">
         <v>80</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="8">
         <v>80</v>
       </c>
       <c r="D61" s="3">
@@ -3842,13 +3847,13 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="9" t="s">
         <v>283</v>
       </c>
       <c r="B62" s="4">
         <v>100</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="8">
         <v>100</v>
       </c>
       <c r="D62" s="3">
@@ -3865,13 +3870,13 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B63" s="4">
         <v>470</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="8">
         <v>470</v>
       </c>
       <c r="D63" s="3">
@@ -3894,13 +3899,13 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B64" s="4">
         <v>290</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <v>310</v>
       </c>
       <c r="D64" s="3">
@@ -3923,13 +3928,13 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B65" s="4">
         <v>450</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="8">
         <v>450</v>
       </c>
       <c r="D65" s="3">
@@ -3952,13 +3957,13 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="7" t="s">
         <v>221</v>
       </c>
       <c r="B66" s="4">
         <v>370</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="8">
         <v>370</v>
       </c>
       <c r="D66" s="3">
@@ -3981,13 +3986,13 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B67" s="4">
         <v>430</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="8">
         <v>430</v>
       </c>
       <c r="D67" s="3">
@@ -4010,13 +4015,13 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B68" s="4">
         <v>1350</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="8">
         <v>1350</v>
       </c>
       <c r="D68" s="3">
@@ -4039,13 +4044,13 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B69" s="4">
         <v>1300</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="8">
         <v>1300</v>
       </c>
       <c r="D69" s="3">
@@ -4068,13 +4073,13 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B70" s="4">
         <v>270</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="8">
         <v>270</v>
       </c>
       <c r="D70" s="3">
@@ -4091,13 +4096,13 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="7" t="s">
         <v>227</v>
       </c>
       <c r="B71" s="4">
         <v>390</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="8">
         <v>390</v>
       </c>
       <c r="D71" s="3">
@@ -4120,13 +4125,13 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B72" s="4">
         <v>440</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="8">
         <v>440</v>
       </c>
       <c r="D72" s="3">
@@ -4149,13 +4154,13 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B73" s="4">
         <v>380</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="8">
         <v>380</v>
       </c>
       <c r="D73" s="3">
@@ -4178,13 +4183,13 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="4">
         <v>1150</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="8">
         <v>1150</v>
       </c>
       <c r="D74" s="3">
@@ -4207,13 +4212,13 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="4">
         <v>1230</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="8">
         <v>1230</v>
       </c>
       <c r="D75" s="3">
@@ -4236,13 +4241,13 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B76" s="4">
         <v>1300</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="8">
         <v>1300</v>
       </c>
       <c r="D76" s="3">
@@ -4265,13 +4270,13 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B77" s="4">
         <v>1390</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="8">
         <v>1390</v>
       </c>
       <c r="D77" s="3">
@@ -4294,13 +4299,13 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B78" s="4">
         <v>370</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="8">
         <v>370</v>
       </c>
       <c r="D78" s="3">
@@ -4323,13 +4328,13 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B79" s="4">
         <v>530</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="8">
         <v>530</v>
       </c>
       <c r="D79" s="3">
@@ -4352,13 +4357,13 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="7" t="s">
         <v>219</v>
       </c>
       <c r="B80" s="4">
         <v>450</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="8">
         <v>450</v>
       </c>
       <c r="D80" s="3">
@@ -4381,13 +4386,13 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="7" t="s">
         <v>263</v>
       </c>
       <c r="B81" s="4">
         <v>330</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="8">
         <v>330</v>
       </c>
       <c r="D81" s="3">
@@ -4407,13 +4412,13 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B82" s="4">
         <v>210</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="8">
         <v>210</v>
       </c>
       <c r="D82" s="3">
@@ -4433,13 +4438,13 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="4">
         <v>1750</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="8">
         <v>1750</v>
       </c>
       <c r="D83" s="3">
@@ -4462,13 +4467,13 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B84" s="4">
         <v>1910</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="8">
         <v>1910</v>
       </c>
       <c r="D84" s="3">
@@ -4491,13 +4496,13 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B85" s="4">
         <v>410</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="8">
         <v>410</v>
       </c>
       <c r="D85" s="3">
@@ -4520,13 +4525,13 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B86" s="4">
         <v>1790</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="8">
         <v>1790</v>
       </c>
       <c r="D86" s="3">
@@ -4549,13 +4554,13 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B87" s="4">
         <v>1990</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="8">
         <v>1990</v>
       </c>
       <c r="D87" s="3">
@@ -4578,13 +4583,13 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B88" s="4">
         <v>1350</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="8">
         <v>1350</v>
       </c>
       <c r="D88" s="3">
@@ -4607,13 +4612,13 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B89" s="4">
         <v>2790</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="8">
         <v>2790</v>
       </c>
       <c r="D89" s="3">
@@ -4636,13 +4641,13 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="7" t="s">
         <v>203</v>
       </c>
       <c r="B90" s="4">
         <v>340</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="8">
         <v>340</v>
       </c>
       <c r="D90" s="3">
@@ -4665,13 +4670,13 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B91" s="4">
         <v>970</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="8">
         <v>970</v>
       </c>
       <c r="D91" s="3">
@@ -4694,13 +4699,13 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B92" s="4">
         <v>155</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="8">
         <v>155</v>
       </c>
       <c r="D92" s="3">
@@ -4723,13 +4728,13 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B93" s="4">
         <v>570</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="8">
         <v>570</v>
       </c>
       <c r="D93" s="3">
@@ -4752,13 +4757,13 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B94" s="4">
         <v>1310</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="8">
         <v>1310</v>
       </c>
       <c r="D94" s="3">
@@ -4781,13 +4786,13 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B95" s="4">
         <v>990</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="8">
         <v>990</v>
       </c>
       <c r="D95" s="3">
@@ -4810,13 +4815,13 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B96" s="4">
         <v>460</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="8">
         <v>460</v>
       </c>
       <c r="D96" s="3">
@@ -4839,13 +4844,13 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B97" s="4">
         <v>410</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="8">
         <v>410</v>
       </c>
       <c r="D97" s="3">
@@ -4868,13 +4873,13 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B98" s="4">
         <v>170</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="8">
         <v>170</v>
       </c>
       <c r="D98" s="3">
@@ -4897,13 +4902,13 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B99" s="4">
         <v>170</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="8">
         <v>170</v>
       </c>
       <c r="D99" s="3">
@@ -4926,13 +4931,13 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="7" t="s">
         <v>257</v>
       </c>
       <c r="B100" s="4">
         <v>210</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="8">
         <v>210</v>
       </c>
       <c r="D100" s="3">
@@ -4955,13 +4960,13 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B101" s="4">
         <v>170</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="8">
         <v>170</v>
       </c>
       <c r="D101" s="3">
@@ -4984,13 +4989,13 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="7" t="s">
         <v>261</v>
       </c>
       <c r="B102" s="4">
         <v>170</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="8">
         <v>170</v>
       </c>
       <c r="D102" s="3">
@@ -5013,13 +5018,13 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B103" s="4">
         <v>530</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="8">
         <v>530</v>
       </c>
       <c r="D103" s="3">
@@ -5042,13 +5047,13 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B104" s="4">
         <v>1150</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="8">
         <v>1150</v>
       </c>
       <c r="D104" s="3">
@@ -5071,13 +5076,13 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B105" s="4">
         <v>580</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="8">
         <v>580</v>
       </c>
       <c r="D105" s="3">
@@ -5100,13 +5105,13 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B106" s="4">
         <v>1390</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="8">
         <v>1390</v>
       </c>
       <c r="D106" s="3">
@@ -5129,13 +5134,13 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B107" s="4">
         <v>390</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="8">
         <v>390</v>
       </c>
       <c r="D107" s="3">
@@ -5158,13 +5163,13 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B108" s="4">
         <v>1990</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="8">
         <v>1990</v>
       </c>
       <c r="D108" s="3">
@@ -5187,13 +5192,13 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B109" s="4">
         <v>255</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="8">
         <v>255</v>
       </c>
       <c r="D109" s="3">
@@ -5216,13 +5221,13 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B110" s="4">
         <v>3500</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="8">
         <v>3500</v>
       </c>
       <c r="D110" s="3">
@@ -5245,14 +5250,14 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="9" t="s">
         <v>211</v>
       </c>
       <c r="B111" s="4">
         <v>410</v>
       </c>
-      <c r="C111" s="4">
-        <v>410</v>
+      <c r="C111" s="8">
+        <v>560</v>
       </c>
       <c r="D111" s="3">
         <v>450</v>
@@ -5274,13 +5279,13 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B112" s="4">
         <v>530</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="8">
         <v>530</v>
       </c>
       <c r="D112" s="3">
@@ -5303,13 +5308,13 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B113" s="4">
         <v>610</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="8">
         <v>610</v>
       </c>
       <c r="D113" s="3">
@@ -5332,13 +5337,13 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B114" s="4">
         <v>550</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="8">
         <v>550</v>
       </c>
       <c r="D114" s="3">
@@ -5361,13 +5366,13 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B115" s="4">
         <v>430</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="8">
         <v>430</v>
       </c>
       <c r="D115" s="3">
@@ -5390,13 +5395,13 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B116" s="4">
         <v>550</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="8">
         <v>550</v>
       </c>
       <c r="D116" s="3">
@@ -5419,13 +5424,13 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B117" s="4">
         <v>900</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="8">
         <v>900</v>
       </c>
       <c r="D117" s="3">
@@ -5448,13 +5453,13 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B118" s="4">
         <v>650</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="8">
         <v>650</v>
       </c>
       <c r="D118" s="3">
@@ -5477,13 +5482,13 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B119" s="4">
         <v>250</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="8">
         <v>250</v>
       </c>
       <c r="D119" s="3">
@@ -5506,13 +5511,13 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="7" t="s">
         <v>205</v>
       </c>
       <c r="B120" s="4">
         <v>350</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="8">
         <v>350</v>
       </c>
       <c r="D120" s="3">
@@ -5535,13 +5540,13 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="9" t="s">
         <v>233</v>
       </c>
       <c r="B121" s="4">
         <v>340</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="8">
         <v>340</v>
       </c>
       <c r="D121" s="3">
@@ -5564,13 +5569,13 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B122" s="4">
         <v>430</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="8">
         <v>430</v>
       </c>
       <c r="D122" s="3">
@@ -5593,13 +5598,13 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B123" s="4">
         <v>440</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="8">
         <v>440</v>
       </c>
       <c r="D123" s="3">
@@ -5622,13 +5627,13 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B124" s="4">
         <v>390</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="8">
         <v>390</v>
       </c>
       <c r="D124" s="3">
@@ -5651,13 +5656,13 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="7" t="s">
         <v>209</v>
       </c>
       <c r="B125" s="4">
         <v>390</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="8">
         <v>390</v>
       </c>
       <c r="D125" s="3">
@@ -5680,13 +5685,13 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B126" s="4">
         <v>1350</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="8">
         <v>1350</v>
       </c>
       <c r="D126" s="3">
@@ -5709,13 +5714,13 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="9" t="s">
         <v>273</v>
       </c>
       <c r="B127" s="4">
         <v>450</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="8">
         <v>450</v>
       </c>
       <c r="D127" s="3">
@@ -5735,13 +5740,13 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="7" t="s">
         <v>276</v>
       </c>
       <c r="B128" s="4">
         <v>350</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="8">
         <v>350</v>
       </c>
       <c r="D128" s="3">
@@ -5761,13 +5766,13 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B129" s="4">
         <v>330</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="8">
         <v>330</v>
       </c>
       <c r="D129" s="3">
@@ -5790,13 +5795,13 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="9" t="s">
         <v>278</v>
       </c>
       <c r="B130" s="4">
         <v>260</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="8">
         <v>260</v>
       </c>
       <c r="D130" s="3">
@@ -5813,13 +5818,13 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B131" s="4">
         <v>1350</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="8">
         <v>1350</v>
       </c>
       <c r="D131" s="3">
@@ -5842,13 +5847,13 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B132" s="4">
         <v>630</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="8">
         <v>630</v>
       </c>
       <c r="D132" s="3">
@@ -5871,13 +5876,13 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B133" s="4">
         <v>1300</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="8">
         <v>1300</v>
       </c>
       <c r="D133" s="3">
@@ -5900,13 +5905,13 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B134" s="4">
         <v>1910</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="8">
         <v>1910</v>
       </c>
       <c r="D134" s="3">
